--- a/biology/Botanique/Cannabaceae/Cannabaceae.xlsx
+++ b/biology/Botanique/Cannabaceae/Cannabaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cannabaceae (les Cannabacées) sont une famille de plantes à fleurs dicotylédones de l'ordre des Rosales. Dans le passé, son nom a aussi été écrit Cannabinaceae, Cannabidaceae, ou Cannabiaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Cannabis qui vient du grec κάνναβις (kánnabis) « chanvre », lui-même issu du persan کنف (kanab), qui a le même sens[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Cannabis qui vient du grec κάνναβις (kánnabis) « chanvre », lui-même issu du persan کنف (kanab), qui a le même sens.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification classique de Cronquist (1981)[2], la famille est assignée à l'ordre des Urticales, et comprend deux genres : Cannabis et Humulus.
-La classification phylogénétique APG II (2003)[3] abandonne l'ordre Urticales et en assigne toutes les plantes à celui des Rosales. Par ailleurs, cette classification étend la famille en y incluant plusieurs genres faisant précédemment partie de la famille Ulmaceae, notablement Celtis. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification classique de Cronquist (1981), la famille est assignée à l'ordre des Urticales, et comprend deux genres : Cannabis et Humulus.
+La classification phylogénétique APG II (2003) abandonne l'ordre Urticales et en assigne toutes les plantes à celui des Rosales. Par ailleurs, cette classification étend la famille en y incluant plusieurs genres faisant précédemment partie de la famille Ulmaceae, notablement Celtis. 
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Tous les genres sont des arbres ou des arbustes, sauf Cannabis (chanvre) et Humulus (houblon), qui sont des plantes herbacées à port dressé ou grimpant. Le genre Cannabis ne comprend que des plantes annuelles, alors que le genre Humulus est généralement vivace.
 </t>
@@ -605,7 +623,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les genres Cannabis et Humulus ont une grande importance industrielle : le chanvre fournit des fibres (tiges), de l'huile (graines appelées chènevis) ; le houblon est utilisé dans la fabrication de la bière.
 Le chanvre est aussi utilisé dans un but dit « récréatif » ou médicinal ; on lui donne alors communément le nom de cannabis. De sa résine, est extrait le haschisch.
@@ -637,9 +657,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Angiosperm Phylogeny Website                        (24 juillet 2017)[4] et NCBI  (24 juillet 2017)[5] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Angiosperm Phylogeny Website                        (24 juillet 2017) et NCBI  (24 juillet 2017) :
 Aphananthe (en) Planchon
 Cannabis L.
 Celtis L.
@@ -649,7 +671,7 @@
 Parasponia Miquel
 Pteroceltis Maxim.
 Trema Loureiro
-Selon Catalogue of Life                                   (24 juillet 2017)[6] :
+Selon Catalogue of Life                                   (24 juillet 2017) :
 Ampelocera (en)
 Aphananthe
 Cannabis
@@ -662,7 +684,7 @@
 Parasponia
 Pteroceltis
 Trema
-Selon ITIS      (24 juillet 2017)[7] :
+Selon ITIS      (24 juillet 2017) :
 Cannabis L.
 Celtis L.
 Humulus L.
@@ -695,9 +717,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (24 juillet 2017)[5] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (24 juillet 2017) :
 genre Aphananthe
 Aphananthe aspera
 Aphananthe cuspidata
